--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>33.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.47</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>79.94</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -714,17 +794,21 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -794,7 +795,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -809,6 +809,100 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -909,4 +910,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1156,4 +1157,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1165,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,17 +1177,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1196,14 +1217,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1212,14 +1255,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.74</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1228,14 +1293,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1244,13 +1331,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1450,7 +1451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,17 +1462,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1481,14 +1502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1497,14 +1540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.68</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1513,14 +1578,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -1529,14 +1700,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -1545,13 +1716,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1621,7 +1622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1632,17 +1633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1652,14 +1673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1668,14 +1711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1684,14 +1749,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -1700,14 +1871,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -1716,14 +1887,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -1732,13 +1903,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.53</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.87</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,112 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1796</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001167</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰科技创新股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1705</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -826,36 +767,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>78.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1783</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -864,36 +805,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1781</t>
+          <t>0.1796</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -902,36 +843,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1665</t>
+          <t>0.1705</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -940,6 +881,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1563,7 +1674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1688,7 +1799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688088-虹软科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,280 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +936,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>001797</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>国新国证新利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>81.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1373</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,112 +1030,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1796</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001167</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰科技创新股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1705</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -937,36 +1124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>78.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1783</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -975,36 +1162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1781</t>
+          <t>0.1796</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1013,36 +1200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1665</t>
+          <t>0.1705</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1051,6 +1238,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +1691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1580,7 +1937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1674,7 +2031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1797,250 +2154,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1726</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4097</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1480</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1264</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>290005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰信优势增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>